--- a/report/reliability/by-unidade/Escola de Enfermagem e Farmácia - ESENFAR.xlsx
+++ b/report/reliability/by-unidade/Escola de Enfermagem e Farmácia - ESENFAR.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.6994129015789664</v>
+        <v>0.6454049813233548</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7237061737461454</v>
+        <v>0.7056000987540114</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8717460624708702</v>
+        <v>0.8652702640468888</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.17916924748003535</v>
+        <v>0.1556654348802165</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>2.6193353053108597</v>
+        <v>2.3967402698428253</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.05426935842797936</v>
+        <v>0.06183948908889754</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.40962441314554</v>
+        <v>1.7973997833152764</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.5960762040597474</v>
+        <v>0.4891449639004436</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.10846684834557226</v>
+        <v>0.08336404436657481</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.6558160522091024</v>
+        <v>0.6465704830802834</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.6808381358840778</v>
+        <v>0.704966244260891</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8482948224365083</v>
+        <v>0.8729466212213494</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.1624284540579739</v>
+        <v>0.16605526166357998</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.133206414776396</v>
+        <v>2.38944266731389</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.06254061351853654</v>
+        <v>0.06272800872581068</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.053639599562476034</v>
+        <v>0.06570522726910795</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.10661933150897959</v>
+        <v>0.0879337120620691</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.6627162516992869</v>
+        <v>0.6030320738904026</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.6878160856952734</v>
+        <v>0.6710199759698451</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8450996083021484</v>
+        <v>0.8468204742915804</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.1668711615919035</v>
+        <v>0.14528077491621824</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.2032399946907177</v>
+        <v>2.039698239879569</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.06127031159344491</v>
+        <v>0.06941085849075279</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.05154891687390057</v>
+        <v>0.06544202618317692</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.10672605401696221</v>
+        <v>0.05346678781393677</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.6658687626533287</v>
+        <v>0.6156714300426875</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.688881506395084</v>
+        <v>0.6828660317093301</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8485793388089666</v>
+        <v>0.847759810550766</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.16756276283136456</v>
+        <v>0.1521376941863445</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.214209442881537</v>
+        <v>2.153241531930279</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.0606884008894279</v>
+        <v>0.06722561158994522</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.051507241379462325</v>
+        <v>0.0639463614628923</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.10661933150897959</v>
+        <v>0.07591507661233948</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.6589045471627208</v>
+        <v>0.6345229901885556</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.684113385386821</v>
+        <v>0.6779907341987531</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8428090221522958</v>
+        <v>0.8430711160717228</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.1644951679974415</v>
+        <v>0.14926805817459224</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.1656928585738155</v>
+        <v>2.1055006989060616</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.06196784295190391</v>
+        <v>0.06428436811572369</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.05044196138593249</v>
+        <v>0.05024869453682047</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.1023000493359336</v>
+        <v>0.09087741607094048</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.6904304496608034</v>
+        <v>0.6160820536068453</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7185260352887506</v>
+        <v>0.673644672856085</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8265646469692458</v>
+        <v>0.835684038838086</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.1883551963585843</v>
+        <v>0.14676646786910824</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>2.552726452074712</v>
+        <v>2.0641448655104186</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.05593674298927787</v>
+        <v>0.06649432407463776</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.047119310594728354</v>
+        <v>0.04944211267670085</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.116758191711589</v>
+        <v>0.08421112860198132</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.6935350279842666</v>
+        <v>0.6183893664964296</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7186371781084111</v>
+        <v>0.6732192050320378</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.826905127388226</v>
+        <v>0.8329223337518774</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.1884392334165967</v>
+        <v>0.14652436647704262</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>2.5541298359074154</v>
+        <v>2.0601553561250157</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.05529130756958038</v>
+        <v>0.06595552696804775</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.047222461316632894</v>
+        <v>0.0487141014747213</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.1282924054785745</v>
+        <v>0.08336404436657481</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.6790770224745029</v>
+        <v>0.6361525536783268</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7141334748120657</v>
+        <v>0.6972419954293004</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8514070096116962</v>
+        <v>0.8537269144618747</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.1850726684477879</v>
+        <v>0.16101329442041784</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>2.49813605962636</v>
+        <v>2.30296799722262</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.057991622113911505</v>
+        <v>0.0643194820332866</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.054481546185348596</v>
+        <v>0.059876159315585424</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.1102076426741823</v>
+        <v>0.0879337120620691</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7173784773601658</v>
+        <v>0.6095033067756709</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7275504928947694</v>
+        <v>0.6850382518840973</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8570168100154667</v>
+        <v>0.8409622684086878</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.19534204744945718</v>
+        <v>0.1534384802474098</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>2.670404878412059</v>
+        <v>2.1749887279391475</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.05050687489392379</v>
+        <v>0.06800079243592233</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.05172436539287684</v>
+        <v>0.0583898749586485</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.11086376022473297</v>
+        <v>0.08336404436657481</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7052314884766823</v>
+        <v>0.6567030332626718</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.725155854190624</v>
+        <v>0.6994251042764811</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8793166677770992</v>
+        <v>0.8575040504553255</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.19345529663397656</v>
+        <v>0.16241813856984616</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>2.6384256868748124</v>
+        <v>2.32695782058872</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.05350271337057024</v>
+        <v>0.058704076524177695</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.058574367312138935</v>
+        <v>0.059556287522214514</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.1102076426741823</v>
+        <v>0.08336404436657481</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.6769585511053972</v>
+        <v>0.6461838300012573</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7034840534469509</v>
+        <v>0.7047860371828366</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8694597342429691</v>
+        <v>0.8710926882474216</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.1774163333309554</v>
+        <v>0.1659353341050092</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>2.3724998996675937</v>
+        <v>2.3873736542039374</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.058688437347962356</v>
+        <v>0.06144086809500217</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.0582051171521282</v>
+        <v>0.06666457113307563</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.10661933150897959</v>
+        <v>0.0668034518320263</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.6761699163068688</v>
+        <v>0.6218005923511685</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7034848385732022</v>
+        <v>0.689646957737815</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8383788818310963</v>
+        <v>0.8622729791929999</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.17741688263364808</v>
+        <v>0.15624494013593862</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>2.372508829525316</v>
+        <v>2.2221369338316475</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.0584105337659043</v>
+        <v>0.06586556275748155</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.052400532601462935</v>
+        <v>0.06690025831845624</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.10672605401696221</v>
+        <v>0.07591507661233948</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.6839599852728564</v>
+        <v>0.6180119364284596</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7115486789774187</v>
+        <v>0.6931112009844416</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8426293163595677</v>
+        <v>0.8357192966913362</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.18317576501073476</v>
+        <v>0.1583972936416006</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>2.4667894619269743</v>
+        <v>2.258509281563264</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.05703288312613681</v>
+        <v>0.06620548299105009</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.05210362095805076</v>
+        <v>0.061518197213290104</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.1102076426741823</v>
+        <v>0.08512380433193228</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.621850793055576</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.6959206571961358</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8353903978058725</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.1601705490357066</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>2.288615368538913</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.06547736540109718</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.06107367950909105</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.09087741607094048</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>71.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6274545103689426</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6517738782035346</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6171498122904089</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5174118492885911</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.3380281690140845</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.1205057782961991</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>71.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5871074932259649</v>
+        <v>0.23409188713223067</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6108498314931492</v>
+        <v>0.35739271463954925</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5845657698140766</v>
+        <v>0.24908497195969573</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.47351680955919395</v>
+        <v>0.21633792647726868</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>4.070422535211268</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.0865928881728273</v>
+        <v>0.11867816581938534</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>71.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5704810416260887</v>
+        <v>0.5578040147095383</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6044791394742594</v>
+        <v>0.5819432568147901</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.5732467962575475</v>
+        <v>0.5370623484734527</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.4629582437335028</v>
+        <v>0.41772987914731063</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.5211267605633805</v>
+        <v>3.3380281690140845</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0121992312298076</v>
+        <v>1.1205057782961991</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>71.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6109704236376751</v>
+        <v>0.49242423833253396</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6327363212295857</v>
+        <v>0.5078271085564338</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6127345874090435</v>
+        <v>0.4603258164232195</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5013843741123578</v>
+        <v>0.34654894171159434</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.014084507042254</v>
+        <v>4.070422535211268</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.0888126920966825</v>
+        <v>1.0865928881728273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>71.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.3802047747380454</v>
+        <v>0.4372655820957111</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.4129494215281636</v>
+        <v>0.5388448819493867</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.43730225271268</v>
+        <v>0.5623949176750733</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.25922613495129143</v>
+        <v>0.3978993212573187</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.28169014084507044</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>0.9438991863775843</v>
+        <v>0.30023465001632066</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>71.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.3777019441023864</v>
+        <v>0.4847696106179421</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.41217531329321033</v>
+        <v>0.5658844649835185</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.43642893654874715</v>
+        <v>0.604014015287016</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.2357891616574622</v>
+        <v>0.3589149622144911</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.3380281690140845</v>
+        <v>0.28169014084507044</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.0947101634918321</v>
+        <v>0.9438991863775843</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>71.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4987835246928052</v>
+        <v>0.4785985742735074</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.44318646155919084</v>
+        <v>0.5685013286158594</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3983492374537497</v>
+        <v>0.6082344327432001</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.3441630641953714</v>
+        <v>0.329519084016721</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.7464788732394365</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2952474651493648</v>
+        <v>1.0947101634918321</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>71.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.42334653937454386</v>
+        <v>0.4008004359387778</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.3485899699510116</v>
+        <v>0.4118911237627321</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.29596607352635357</v>
+        <v>0.3717504800201762</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.186770676927791</v>
+        <v>0.3600558806113139</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.788732394366197</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.7961505899144146</v>
+        <v>0.30023465001632066</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>71.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.38477265034457947</v>
+        <v>0.5387135573768655</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.36596979473441155</v>
+        <v>0.4937669674411165</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.25040147929460793</v>
+        <v>0.47909504065917397</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.193013767914578</v>
+        <v>0.36951392320289667</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.3380281690140845</v>
+        <v>2.7464788732394365</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.4535047493345277</v>
+        <v>1.2952474651493648</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>71.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5136509211554375</v>
+        <v>0.46840544101396325</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5137128722127593</v>
+        <v>0.3967062232035931</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.4246016401875903</v>
+        <v>0.35028682700571057</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.3577699111836595</v>
+        <v>0.20594622570142954</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.3661971830985915</v>
+        <v>2.788732394366197</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3227615768288739</v>
+        <v>1.7961505899144146</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>71.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.506257926677699</v>
+        <v>0.4130088266000302</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5137078123052858</v>
+        <v>0.3586890065107421</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5014420691672026</v>
+        <v>0.24987867618992415</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.36498742585739263</v>
+        <v>0.1984798979925498</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.1549295774647885</v>
+        <v>1.3380281690140845</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.2029474198691392</v>
+        <v>1.4535047493345277</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>71.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.4566594959807262</v>
+        <v>0.48995191907614066</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.46065980732192474</v>
+        <v>0.4634320620725279</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.4425798699065494</v>
+        <v>0.37962767316356366</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.3104130020004516</v>
+        <v>0.3077189761024266</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.3661971830985915</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3227615768288739</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>71.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.4911154608400865</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.4401673647287749</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.42376551392545164</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.3275046609480934</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.1549295774647885</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.2029474198691392</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>71.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.4708709864360868</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.42100032272172083</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.40431821513482336</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.30640618741289255</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.9577464788732395</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.188475851287929</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.014084507042253521</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.09859154929577464</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.014084507042253521</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.39436619718309857</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.36619718309859156</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.11267605633802817</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.014084507042253521</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.04225352112676056</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.28169014084507044</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.16901408450704225</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.49295774647887325</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.0</v>
+        <v>0.014084507042253521</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.08450704225352113</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.014084507042253521</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.30985915492957744</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4788732394366197</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.11267605633802817</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.0</v>
+        <v>0.014084507042253521</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.0</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.08450704225352113</v>
+        <v>0.014084507042253521</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.323943661971831</v>
+        <v>0.39436619718309857</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.08450704225352113</v>
+        <v>0.36619718309859156</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5070422535211268</v>
+        <v>0.11267605633802817</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.9014084507042254</v>
+        <v>0.014084507042253521</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.028169014084507043</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.028169014084507043</v>
+        <v>0.28169014084507044</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.04225352112676056</v>
+        <v>0.16901408450704225</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.0</v>
+        <v>0.49295774647887325</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.9014084507042254</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.028169014084507043</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.028169014084507043</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.014084507042253521</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.028169014084507043</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.09859154929577464</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.11267605633802817</v>
+        <v>0.028169014084507043</v>
       </c>
       <c r="D49" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.028169014084507043</v>
+      </c>
+      <c r="F49" t="n" s="113">
         <v>0.04225352112676056</v>
       </c>
-      <c r="E49" t="n" s="112">
-        <v>0.4507042253521127</v>
-      </c>
-      <c r="F49" t="n" s="113">
-        <v>0.28169014084507044</v>
-      </c>
       <c r="G49" t="n" s="114">
-        <v>0.014084507042253521</v>
+        <v>0.0</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.09859154929577464</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.2112676056338028</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.2112676056338028</v>
+        <v>0.028169014084507043</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.04225352112676056</v>
+        <v>0.028169014084507043</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.15492957746478872</v>
+        <v>0.014084507042253521</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.28169014084507044</v>
+        <v>0.028169014084507043</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.43661971830985913</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.18309859154929578</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.08450704225352113</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.19718309859154928</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.09859154929577464</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.16901408450704225</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.09859154929577464</v>
+        <v>0.11267605633802817</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.07042253521126761</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.5211267605633803</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.14084507042253522</v>
+        <v>0.28169014084507044</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.014084507042253521</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
+        <v>0.09859154929577464</v>
+      </c>
+      <c r="C53" t="n" s="110">
+        <v>0.2112676056338028</v>
+      </c>
+      <c r="D53" t="n" s="111">
+        <v>0.2112676056338028</v>
+      </c>
+      <c r="E53" t="n" s="112">
+        <v>0.04225352112676056</v>
+      </c>
+      <c r="F53" t="n" s="113">
         <v>0.15492957746478872</v>
       </c>
-      <c r="C53" t="n" s="110">
-        <v>0.056338028169014086</v>
-      </c>
-      <c r="D53" t="n" s="111">
-        <v>0.39436619718309857</v>
-      </c>
-      <c r="E53" t="n" s="112">
-        <v>0.2676056338028169</v>
-      </c>
-      <c r="F53" t="n" s="113">
-        <v>0.1267605633802817</v>
-      </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.28169014084507044</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
+        <v>27</v>
+      </c>
+      <c r="B54" t="n" s="109">
+        <v>0.43661971830985913</v>
+      </c>
+      <c r="C54" t="n" s="110">
+        <v>0.18309859154929578</v>
+      </c>
+      <c r="D54" t="n" s="111">
+        <v>0.08450704225352113</v>
+      </c>
+      <c r="E54" t="n" s="112">
+        <v>0.19718309859154928</v>
+      </c>
+      <c r="F54" t="n" s="113">
+        <v>0.09859154929577464</v>
+      </c>
+      <c r="G54" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.16901408450704225</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.09859154929577464</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.07042253521126761</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.5211267605633803</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.14084507042253522</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
         <v>29</v>
       </c>
-      <c r="B54" t="n" s="109">
+      <c r="B56" t="n" s="109">
+        <v>0.15492957746478872</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.056338028169014086</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.39436619718309857</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.2676056338028169</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.1267605633802817</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
         <v>0.19718309859154928</v>
       </c>
-      <c r="C54" t="n" s="110">
+      <c r="C57" t="n" s="110">
         <v>0.04225352112676056</v>
       </c>
-      <c r="D54" t="n" s="111">
+      <c r="D57" t="n" s="111">
         <v>0.4507042253521127</v>
       </c>
-      <c r="E54" t="n" s="112">
+      <c r="E57" t="n" s="112">
         <v>0.22535211267605634</v>
       </c>
-      <c r="F54" t="n" s="113">
+      <c r="F57" t="n" s="113">
         <v>0.08450704225352113</v>
       </c>
-      <c r="G54" t="n" s="114">
-        <v>0.0</v>
-      </c>
-      <c r="H54" t="n" s="115">
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8404200819672131</v>
+        <v>0.8887133182844245</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8408085183667149</v>
+        <v>0.980852498852836</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8373698279223174</v>
+        <v>0.9825432332736337</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5690464675190712</v>
+        <v>0.944676124497796</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.2817431544711</v>
+        <v>51.226136053691455</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.03139217209772137</v>
+        <v>0.004744954561149001</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.7359154929577465</v>
+        <v>0.23943661971830987</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.8862917569687901</v>
+        <v>0.7708644881046158</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5929605627004029</v>
+        <v>0.9403182479183949</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8086264427547727</v>
+        <v>0.9869268292682927</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8081670838534538</v>
+        <v>0.9923989380986007</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7656665216348697</v>
+        <v>0.9849125567869971</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5840767799506271</v>
+        <v>0.9849125567869972</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.212869720627475</v>
+        <v>130.5605652173285</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.03968669321403449</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.017012724478521687</v>
-      </c>
+        <v>0.0023530279552158953</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6511918322765035</v>
+        <v>0.9849125567869971</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.7945994648610276</v>
+        <v>0.6483748417053607</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.7977160727227441</v>
+        <v>0.9692412560951624</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.737005539997284</v>
+        <v>0.9403182479183949</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5679441332336034</v>
+        <v>0.9403182479183949</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>3.9435464965507245</v>
+        <v>31.51108052701478</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.04286556953855476</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.009177845788696319</v>
-      </c>
+        <v>0.01651274799066335</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5604193648450443</v>
+        <v>0.9403182479183949</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8077278088303165</v>
+        <v>0.6885422270037656</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8082926953078426</v>
+        <v>0.9522199563205052</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7516051851151664</v>
+        <v>0.908797568787996</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5842736442313351</v>
+        <v>0.9087975687879961</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.216285324160156</v>
+        <v>19.929239971146337</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.0399702992892122</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.008936712307855012</v>
-      </c>
+        <v>0.020937121839171513</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6255017605557616</v>
+        <v>0.9087975687879961</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.7799330170248395</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.7787707803029805</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7148731915372286</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5398913126607194</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>3.5201985586240916</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.044981208509130385</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.009507965457184943</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5604193648450443</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>71.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9458747992005375</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9677189170767229</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9400350550063369</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9292160721332804</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.09859154929577464</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.30023465001632066</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>71.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8140211902916973</v>
+        <v>0.9923687530288423</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8089667138291838</v>
+        <v>0.9828656359405408</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7199992906523248</v>
+        <v>0.9821857770139567</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6508642670625987</v>
+        <v>0.978443838493911</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.3380281690140845</v>
+        <v>0.28169014084507044</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.1205057782961991</v>
+        <v>0.9438991863775843</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>71.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8280403708878055</v>
+        <v>0.9974448514876709</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8236743057874137</v>
+        <v>0.9935718196957715</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.758489003023635</v>
+        <v>0.9961246756918626</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6810959080335751</v>
+        <v>0.9908362973110205</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.070422535211268</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.0865928881728273</v>
+        <v>1.0947101634918321</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>71.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8005304688982944</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8087872392790625</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7323136530622787</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6517657341225215</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.5211267605633805</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0121992312298076</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>71.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8477238407267145</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8492491197345904</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8004282707516558</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.713782442574006</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.014084507042254</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.0888126920966825</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.9014084507042254</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.09859154929577464</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.9014084507042254</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.028169014084507043</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.028169014084507043</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.04225352112676056</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
+        <v>0.9014084507042254</v>
+      </c>
+      <c r="C27" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="226">
+        <v>0.028169014084507043</v>
+      </c>
+      <c r="E27" t="n" s="227">
+        <v>0.028169014084507043</v>
+      </c>
+      <c r="F27" t="n" s="228">
         <v>0.014084507042253521</v>
       </c>
-      <c r="C27" t="n" s="225">
-        <v>0.09859154929577464</v>
-      </c>
-      <c r="D27" t="n" s="226">
-        <v>0.014084507042253521</v>
-      </c>
-      <c r="E27" t="n" s="227">
-        <v>0.39436619718309857</v>
-      </c>
-      <c r="F27" t="n" s="228">
-        <v>0.36619718309859156</v>
-      </c>
       <c r="G27" t="n" s="229">
-        <v>0.11267605633802817</v>
+        <v>0.028169014084507043</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.014084507042253521</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.04225352112676056</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.28169014084507044</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.16901408450704225</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.49295774647887325</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.08450704225352113</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.014084507042253521</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.30985915492957744</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4788732394366197</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.11267605633802817</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.08450704225352113</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.323943661971831</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.08450704225352113</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5070422535211268</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.815628340946642</v>
+        <v>0.7096548210419055</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8411133769857009</v>
+        <v>0.8476720774098785</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7257943618314788</v>
+        <v>0.8118289080098713</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.7257943618314788</v>
+        <v>0.649728493948356</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>5.293796047953037</v>
+        <v>5.564784597573517</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.039393932679033634</v>
+        <v>0.030858089329508436</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.767605633802817</v>
+        <v>2.1455399061032865</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.4388263717237764</v>
+        <v>1.0262157240432646</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.7257943618314788</v>
+        <v>0.7062568921244614</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
+        <v>0.815628340946642</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.8411133769857009</v>
+      </c>
+      <c r="D11" t="n" s="290">
         <v>0.7257943618314788</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.7257943618314788</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.5267774556663638</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.7257943618314788</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7257943618314788</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>5.293796047953037</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.039393932679033634</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.7257943618314788</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.5267774556663638</v>
+        <v>0.28794016827672175</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.7257943618314788</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.5267774556663638</v>
-      </c>
+        <v>0.6817250819113678</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.5171342278891278</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.5171342278891278</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>2.1419378127733064</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.0477258040519296</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.7257943618314788</v>
+        <v>0.5171342278891278</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.47412295936088933</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.8278435625776146</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.7062568921244614</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.7062568921244614</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>4.808670387076509</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.040902256735605914</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.7062568921244614</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>71.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9031261475962372</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9289225914551436</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7913822772522274</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7257943618314788</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.7464788732394365</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.2952474651493648</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>71.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9508561807976217</v>
+        <v>0.6963652955040233</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9289225914551436</v>
+        <v>0.846530469118977</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7913822772522273</v>
+        <v>0.7277571531007221</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.7257943618314789</v>
+        <v>0.6406709085918831</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9014084507042254</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.30023465001632066</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>71.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.913039419581669</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9259754032480507</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8909026815228311</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7700605512175203</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.7464788732394365</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.2952474651493648</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>71.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9392097728489516</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8539691348794025</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7478348234096246</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7195786432199212</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.788732394366197</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.7961505899144146</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.09859154929577464</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9014084507042254</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.09859154929577464</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.11267605633802817</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.04225352112676056</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.4507042253521127</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.28169014084507044</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.014084507042253521</v>
       </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+      <c r="H26" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.09859154929577464</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.2112676056338028</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.2112676056338028</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.04225352112676056</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.15492957746478872</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.28169014084507044</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.9094536525475752</v>
+        <v>0.6217788461538463</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.9094899724314311</v>
+        <v>0.7333962596683301</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8340042268655291</v>
+        <v>0.6698071246668584</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.834004226865529</v>
+        <v>0.47834116968371915</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>10.048499562575163</v>
+        <v>2.75088511044873</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.021486579978361238</v>
+        <v>0.04040010988948249</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.056338028169014</v>
+        <v>2.7981220657276995</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.145018077757003</v>
+        <v>0.6819181006530121</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8340042268655291</v>
+        <v>0.4509244353891303</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.834004226865529</v>
+        <v>0.7693871328387032</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.834004226865529</v>
+        <v>0.7696106835859735</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6955630504295689</v>
+        <v>0.6255017605557616</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.834004226865529</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.834004226865529</v>
-      </c>
+        <v>0.6255017605557616</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>3.3404790446225676</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.054694995144062</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.834004226865529</v>
+        <v>0.6255017605557616</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6955630504295689</v>
+        <v>0.17740945365254746</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.834004226865529</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6955630504295689</v>
-      </c>
+        <v>0.6215684626859215</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.4509244353891301</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.4509244353891302</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>1.6424858961214222</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.03779846180891823</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.834004226865529</v>
+        <v>0.4509244353891303</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.13974056603773577</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.5278934525291779</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.3585973131062655</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.3585973131062654</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>1.11816592114051</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.04004163271163523</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.35859731310626547</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>71.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9581251798526289</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9576022730929394</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8745190899274579</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8340042268655291</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.1549295774647885</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2029474198691392</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>71.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9570761923904343</v>
+        <v>0.4939301903781879</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9576022730929393</v>
+        <v>0.7468665641110498</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8745190899274577</v>
+        <v>0.5156544318590277</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.834004226865529</v>
+        <v>0.44817357473469016</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.9577464788732395</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.188475851287929</v>
+        <v>0.11867816581938534</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>71.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.900757834153528</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8189220490077161</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.6973231765380955</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.63075286755425</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.3380281690140845</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.1205057782961991</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>71.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.8999057747854569</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8570293780027949</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.7698989169706009</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.6457033691223371</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>4.070422535211268</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.0865928881728273</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.15492957746478872</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.056338028169014086</v>
-      </c>
-      <c r="D23" t="n" s="456">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.014084507042253521</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9859154929577465</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.014084507042253521</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.09859154929577464</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.014084507042253521</v>
+      </c>
+      <c r="E26" t="n" s="457">
         <v>0.39436619718309857</v>
       </c>
-      <c r="E23" t="n" s="457">
-        <v>0.2676056338028169</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.1267605633802817</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.19718309859154928</v>
-      </c>
-      <c r="C24" t="n" s="455">
+      <c r="F26" t="n" s="458">
+        <v>0.36619718309859156</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.11267605633802817</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.014084507042253521</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="456">
         <v>0.04225352112676056</v>
       </c>
-      <c r="D24" t="n" s="456">
-        <v>0.4507042253521127</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.22535211267605634</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.08450704225352113</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E27" t="n" s="457">
+        <v>0.28169014084507044</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.16901408450704225</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.49295774647887325</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9869268292682927</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9923989380986007</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9849125567869971</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9849125567869972</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>130.5605652173285</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0023530279552158953</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.30985915492957744</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.0154738414830873</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9849125567869971</v>
+      <c r="A6" t="n" s="491">
+        <v>0.5012492192379763</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.5029171559316634</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.33593141349812095</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.33593141349812106</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.0117371016379813</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.1177915837580057</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.852112676056338</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.1351348761811244</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.33593141349812106</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9849125567869972</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9849125567869972</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9700527445166996</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9849125567869972</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9849125567869972</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9849125567869972</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.33593141349812106</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.33593141349812106</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.11284991457484539</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.33593141349812106</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.33593141349812106</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.33593141349812106</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9700527445166996</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9849125567869972</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9700527445166996</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9849125567869972</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.11284991457484539</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.33593141349812106</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.11284991457484539</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.33593141349812106</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>71.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9956401090006384</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9962209987716071</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9886772226828371</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9849125567869971</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.28169014084507044</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>0.9438991863775843</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8359631773206254</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8172916901260286</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.47369891707336975</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.335931413498121</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.3380281690140845</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.4535047493345277</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>71.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9967604490626658</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9962209987716072</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9886772226828371</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9849125567869973</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.3380281690140845</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.0947101634918321</v>
+      <c r="C18" t="n" s="545">
+        <v>0.7977199537256051</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8172916901260286</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.47369891707336975</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.3359314134981211</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.3661971830985915</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3227615768288739</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.9014084507042254</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.028169014084507043</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.028169014084507043</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.04225352112676056</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.0</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.43661971830985913</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.18309859154929578</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.08450704225352113</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.19718309859154928</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.09859154929577464</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.9014084507042254</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.028169014084507043</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.028169014084507043</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.014084507042253521</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.028169014084507043</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.16901408450704225</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.09859154929577464</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.07042253521126761</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.5211267605633803</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.14084507042253522</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.5012492192379763</v>
+        <v>0.9094536525475752</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5029171559316634</v>
+        <v>0.9094899724314311</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.33593141349812095</v>
+        <v>0.8340042268655291</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.33593141349812106</v>
+        <v>0.834004226865529</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.0117371016379813</v>
+        <v>10.048499562575163</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.1177915837580057</v>
+        <v>0.021486579978361238</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.852112676056338</v>
+        <v>2.056338028169014</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.1351348761811244</v>
+        <v>1.145018077757003</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.33593141349812106</v>
+        <v>0.8340042268655291</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.33593141349812106</v>
+        <v>0.834004226865529</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.33593141349812106</v>
+        <v>0.834004226865529</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.11284991457484539</v>
+        <v>0.6955630504295689</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.33593141349812106</v>
+        <v>0.834004226865529</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.33593141349812106</v>
+        <v>0.834004226865529</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.33593141349812106</v>
+        <v>0.834004226865529</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.11284991457484539</v>
+        <v>0.6955630504295689</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.33593141349812106</v>
+        <v>0.834004226865529</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.11284991457484539</v>
+        <v>0.6955630504295689</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.33593141349812106</v>
+        <v>0.834004226865529</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>71.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8359631773206254</v>
+        <v>0.9581251798526289</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8172916901260286</v>
+        <v>0.9576022730929394</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.47369891707336975</v>
+        <v>0.8745190899274579</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.335931413498121</v>
+        <v>0.8340042268655291</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.3380281690140845</v>
+        <v>2.1549295774647885</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.4535047493345277</v>
+        <v>1.2029474198691392</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>71.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.7977199537256051</v>
+        <v>0.9570761923904343</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8172916901260286</v>
+        <v>0.9576022730929393</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.47369891707336975</v>
+        <v>0.8745190899274577</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.3359314134981211</v>
+        <v>0.834004226865529</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.3661971830985915</v>
+        <v>1.9577464788732395</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3227615768288739</v>
+        <v>1.188475851287929</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.43661971830985913</v>
+        <v>0.15492957746478872</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.18309859154929578</v>
+        <v>0.056338028169014086</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.08450704225352113</v>
+        <v>0.39436619718309857</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.19718309859154928</v>
+        <v>0.2676056338028169</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.09859154929577464</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.16901408450704225</v>
+        <v>0.19718309859154928</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.09859154929577464</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.07042253521126761</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.5211267605633803</v>
+        <v>0.22535211267605634</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.14084507042253522</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7308714744092654</v>
+        <v>0.6733000268500542</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.736329142271187</v>
+        <v>0.7181811076665473</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.872278092006267</v>
+        <v>0.8551292842126389</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.21829852005550276</v>
+        <v>0.20308426476039465</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>2.792607224832202</v>
+        <v>2.5483781506627436</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.04858644136227245</v>
+        <v>0.056673501575030344</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.3380281690140845</v>
+        <v>1.6929577464788732</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.6270944784555648</v>
+        <v>0.5367425410119753</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.11429669515345282</v>
+        <v>0.09185829658508154</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.6915478595661952</v>
+        <v>0.6606745177275677</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.6955544587230347</v>
+        <v>0.6796360120025615</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8496927765606644</v>
+        <v>0.821935821854832</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.20245711966608987</v>
+        <v>0.1907529656412381</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>2.284659699089706</v>
+        <v>2.1214494683091387</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.056051611403141674</v>
+        <v>0.059732343208222335</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.06131059897268646</v>
+        <v>0.052131477252406105</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.10879490712084759</v>
+        <v>0.10445969042245659</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.6959168875331301</v>
+        <v>0.6455525772181782</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7003312405953039</v>
+        <v>0.6795896686000653</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8421407644936039</v>
+        <v>0.8150418228213601</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.20614044036846316</v>
+        <v>0.19072011263863697</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>2.3370178526001166</v>
+        <v>2.1209979891435045</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.05520341453943082</v>
+        <v>0.059859752411488665</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.057532649722971646</v>
+        <v>0.04998201653056266</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.12682578334286992</v>
+        <v>0.10451305167644791</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.6975564464558022</v>
+        <v>0.6505190311418685</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.700840536574938</v>
+        <v>0.6792910310355357</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.845743341325961</v>
+        <v>0.8092892730701412</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.20653804671587808</v>
+        <v>0.1905085712695448</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>2.342698868860938</v>
+        <v>2.1180917803106523</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.055007820364483345</v>
+        <v>0.0584924654072047</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.05768228374374212</v>
+        <v>0.04841722055060358</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.10879490712084759</v>
+        <v>0.10445969042245659</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.6944223070068649</v>
+        <v>0.676737427165243</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.6984294740951036</v>
+        <v>0.7160507682532862</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8408741580635801</v>
+        <v>0.8636955886390972</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.2046641269381847</v>
+        <v>0.21886908956732626</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>2.315973923510551</v>
+        <v>2.521756314847198</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.05549822973605141</v>
+        <v>0.0579992993822448</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.055841657989042975</v>
+        <v>0.07890260026908483</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.1066726927629709</v>
+        <v>0.09707917296050758</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7028314934493425</v>
+        <v>0.6405399838657078</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7118493850308479</v>
+        <v>0.6927652488745618</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8310260085006242</v>
+        <v>0.8403332892431784</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.21537223933576813</v>
+        <v>0.20034403963088432</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>2.470407308022074</v>
+        <v>2.254840138808772</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.05371608668037767</v>
+        <v>0.06222211267043774</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.05975907305612223</v>
+        <v>0.07839546322323206</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.10879490712084759</v>
+        <v>0.07579833287258542</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.710301724137931</v>
+        <v>0.6489674713721288</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7198776383538488</v>
+        <v>0.6977210329792629</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8355206679405565</v>
+        <v>0.8349759136546862</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.222117348518093</v>
+        <v>0.20411753410313566</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>2.569868517898594</v>
+        <v>2.3082023862129897</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.0523473279113583</v>
+        <v>0.0607247722050799</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.05954760298932044</v>
+        <v>0.07462437838713036</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.12682578334286992</v>
+        <v>0.09923881404703057</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7298333577044643</v>
+        <v>0.6583536585365853</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7383157750781006</v>
+        <v>0.707944045807231</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8194883494152333</v>
+        <v>0.8613236648807291</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.23866883088753563</v>
+        <v>0.21218497143191772</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>2.8213996288788667</v>
+        <v>2.4240014135782992</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.04845580343355602</v>
+        <v>0.060256242516034716</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.0477347376720151</v>
+        <v>0.08450371809103661</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.18751950288256303</v>
+        <v>0.06553945738821326</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7349160008195041</v>
+        <v>0.6363566032583963</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.7379818442970866</v>
+        <v>0.6977846053419458</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8194398618911602</v>
+        <v>0.8523561609221824</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.23835504659876458</v>
+        <v>0.20416650888144394</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>2.8165294207086933</v>
+        <v>2.308898281411057</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.04727520475460405</v>
+        <v>0.06400046220668718</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.04799084399916385</v>
+        <v>0.08194775889588272</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.18751950288256303</v>
+        <v>0.0879337120620691</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7326160783877074</v>
+        <v>0.635178223951884</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.7339918128154057</v>
+        <v>0.7042039821792142</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.8802738079610088</v>
+        <v>0.8143712258851812</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.23464720077232337</v>
+        <v>0.2091880484712459</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>2.7592827896911976</v>
+        <v>2.3807081223313524</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.04896349644398697</v>
+        <v>0.06314563451929349</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.0702278895263513</v>
+        <v>0.07090651231551036</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.13111357075223665</v>
+        <v>0.09707917296050758</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7010924467699321</v>
+        <v>0.6357860311982816</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.7102073367869356</v>
+        <v>0.7052123595798248</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.8691348914509887</v>
+        <v>0.8143397794218042</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.21402480075392719</v>
+        <v>0.20999080596857286</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>2.450742986080256</v>
+        <v>2.3922724798592325</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.05501457680051234</v>
+        <v>0.0630396204708171</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.06944889082202876</v>
+        <v>0.07075748994994814</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.1066726927629709</v>
+        <v>0.10445969042245659</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>71.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6340638508954665</v>
+        <v>0.5008059070293438</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.6492279418141357</v>
+        <v>0.6152482026494238</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6012801671100959</v>
+        <v>0.6450695681549458</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5074428753806098</v>
+        <v>0.45712414381105915</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.3380281690140845</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.1205057782961991</v>
+        <v>0.30023465001632066</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>71.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.610298396760207</v>
+        <v>0.5087064068260255</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6248749325670181</v>
+        <v>0.6154706137297257</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.5917742383807478</v>
+        <v>0.6602455227876495</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.4830468406976305</v>
+        <v>0.36060052845973717</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>4.070422535211268</v>
+        <v>0.28169014084507044</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.0865928881728273</v>
+        <v>0.9438991863775843</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>71.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6007581607544177</v>
+        <v>0.5049549952502759</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6222460789217003</v>
+        <v>0.6169027246694643</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.5844248367357934</v>
+        <v>0.6636373715315097</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.48163277329305665</v>
+        <v>0.32927779025703147</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.5211267605633805</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.0121992312298076</v>
+        <v>1.0947101634918321</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>71.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6185135342412589</v>
+        <v>0.2899675832790142</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6346358731758687</v>
+        <v>0.4249052506755468</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6064702340678808</v>
+        <v>0.3008204394270244</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.49268841525117113</v>
+        <v>0.2695240710072295</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>4.014084507042254</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.0888126920966825</v>
+        <v>0.11867816581938534</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>71.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.5810340953744552</v>
+        <v>0.5503378656771516</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.5638370529510921</v>
+        <v>0.5503177257249282</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.5498580554760485</v>
+        <v>0.47966906680257704</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.431418308098234</v>
+        <v>0.3786426073923402</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.1549295774647885</v>
+        <v>3.3380281690140845</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.2029474198691392</v>
+        <v>1.1205057782961991</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>71.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5408098391140229</v>
+        <v>0.5103486760269685</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.5192404186737305</v>
+        <v>0.5247715985633893</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.4998190898120783</v>
+        <v>0.4631244187688354</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.3853740668172163</v>
+        <v>0.3370890507956321</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.9577464788732395</v>
+        <v>4.070422535211268</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.188475851287929</v>
+        <v>1.0865928881728273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>71.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.375040907484938</v>
+        <v>0.5542653920666293</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.4098069927608515</v>
+        <v>0.47015596804257603</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.43325402058802914</v>
+        <v>0.34336678979392504</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.23539422819480899</v>
+        <v>0.322380487652048</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.28169014084507044</v>
+        <v>1.3380281690140845</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>0.9438991863775843</v>
+        <v>1.4535047493345277</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>71.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.37639526361627507</v>
+        <v>0.595248119209648</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.41188164015202705</v>
+        <v>0.524440044900446</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.4354529352921125</v>
+        <v>0.4234317779937365</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.21285508005214193</v>
+        <v>0.39818799267745036</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.3380281690140845</v>
+        <v>2.3661971830985915</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.0947101634918321</v>
+        <v>1.3227615768288739</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>71.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.4887993720436017</v>
+        <v>0.581396964467158</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.4363968021470245</v>
+        <v>0.4904447946486956</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.3093460855523785</v>
+        <v>0.47187447771510116</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.28259966792042845</v>
+        <v>0.4020635742772764</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.3380281690140845</v>
+        <v>2.1549295774647885</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.4535047493345277</v>
+        <v>1.2029474198691392</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>71.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.6029693641446653</v>
+        <v>0.5773105731057605</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5727459118029299</v>
+        <v>0.4850102179566146</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.4736239081224709</v>
+        <v>0.46617757379491265</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.44103995794230566</v>
+        <v>0.39955310735213134</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.3661971830985915</v>
+        <v>1.9577464788732395</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3227615768288739</v>
+        <v>1.188475851287929</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.014084507042253521</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="C39" t="n" s="798">
         <v>0.09859154929577464</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.014084507042253521</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.39436619718309857</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.36619718309859156</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.11267605633802817</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.014084507042253521</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.0</v>
+        <v>0.028169014084507043</v>
       </c>
       <c r="D40" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n" s="800">
+        <v>0.028169014084507043</v>
+      </c>
+      <c r="F40" t="n" s="801">
         <v>0.04225352112676056</v>
       </c>
-      <c r="E40" t="n" s="800">
-        <v>0.28169014084507044</v>
-      </c>
-      <c r="F40" t="n" s="801">
-        <v>0.16901408450704225</v>
-      </c>
       <c r="G40" t="n" s="802">
-        <v>0.49295774647887325</v>
+        <v>0.0</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.0</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.08450704225352113</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n" s="799">
+        <v>0.028169014084507043</v>
+      </c>
+      <c r="E41" t="n" s="800">
+        <v>0.028169014084507043</v>
+      </c>
+      <c r="F41" t="n" s="801">
         <v>0.014084507042253521</v>
       </c>
-      <c r="E41" t="n" s="800">
-        <v>0.30985915492957744</v>
-      </c>
-      <c r="F41" t="n" s="801">
-        <v>0.4788732394366197</v>
-      </c>
       <c r="G41" t="n" s="802">
-        <v>0.11267605633802817</v>
+        <v>0.028169014084507043</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.0</v>
+        <v>0.014084507042253521</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.0</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.08450704225352113</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.323943661971831</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.08450704225352113</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.5070422535211268</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.15492957746478872</v>
+        <v>0.014084507042253521</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.056338028169014086</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="D43" t="n" s="799">
+        <v>0.014084507042253521</v>
+      </c>
+      <c r="E43" t="n" s="800">
         <v>0.39436619718309857</v>
       </c>
-      <c r="E43" t="n" s="800">
-        <v>0.2676056338028169</v>
-      </c>
       <c r="F43" t="n" s="801">
-        <v>0.1267605633802817</v>
+        <v>0.36619718309859156</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.11267605633802817</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.19718309859154928</v>
+        <v>0.014084507042253521</v>
       </c>
       <c r="C44" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="D44" t="n" s="799">
         <v>0.04225352112676056</v>
       </c>
-      <c r="D44" t="n" s="799">
-        <v>0.4507042253521127</v>
-      </c>
       <c r="E44" t="n" s="800">
-        <v>0.22535211267605634</v>
+        <v>0.28169014084507044</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.08450704225352113</v>
+        <v>0.16901408450704225</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.49295774647887325</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,22 +8376,22 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.9014084507042254</v>
+        <v>0.43661971830985913</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.028169014084507043</v>
+        <v>0.18309859154929578</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.0</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.028169014084507043</v>
+        <v>0.19718309859154928</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.04225352112676056</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="G45" t="n" s="802">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.9014084507042254</v>
+        <v>0.16901408450704225</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.0</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.028169014084507043</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.028169014084507043</v>
+        <v>0.5211267605633803</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.014084507042253521</v>
+        <v>0.14084507042253522</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.028169014084507043</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.43661971830985913</v>
+        <v>0.15492957746478872</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.18309859154929578</v>
+        <v>0.056338028169014086</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.08450704225352113</v>
+        <v>0.39436619718309857</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.19718309859154928</v>
+        <v>0.2676056338028169</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.09859154929577464</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.16901408450704225</v>
+        <v>0.19718309859154928</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.09859154929577464</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.07042253521126761</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.5211267605633803</v>
+        <v>0.22535211267605634</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.14084507042253522</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
